--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2FC22F-CCE0-42CF-B012-03B6D8206A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE37F38-6509-49A1-8F67-9AE65C6ABC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,6 +958,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,18 +1075,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,84 +1094,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1456,40 +1456,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1502,26 +1502,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="85" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="85"/>
+      <c r="O2" s="111"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1548,20 +1548,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1587,47 +1587,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="70" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="79" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="81"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="107"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="67" t="s">
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="69"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="99"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1640,57 +1640,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="103">
         <v>45008</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75">
+      <c r="C5" s="104"/>
+      <c r="D5" s="92">
         <v>45009</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90">
         <v>45015</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76">
+      <c r="I5" s="88"/>
+      <c r="J5" s="88">
         <v>45016</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78">
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90">
         <v>45023</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="75">
+      <c r="O5" s="91"/>
+      <c r="P5" s="92">
         <v>45024</v>
       </c>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="78">
+      <c r="U5" s="90">
         <v>45043</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="75">
+      <c r="V5" s="91"/>
+      <c r="W5" s="92">
         <v>45044</v>
       </c>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="78">
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="90">
         <v>45050</v>
       </c>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="75">
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="92">
         <v>45051</v>
       </c>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="77"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="89"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1733,13 +1733,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="96" t="s">
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="93" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1774,11 +1774,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="97"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="94"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1811,11 +1811,11 @@
       <c r="M8" s="65"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="97"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="94"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1848,11 +1848,11 @@
       <c r="M9" s="65"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="97"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="94"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1885,11 +1885,11 @@
       <c r="M10" s="65"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="97"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="94"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1922,11 +1922,11 @@
       <c r="M11" s="65"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="97"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="94"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -1959,11 +1959,11 @@
       <c r="M12" s="65"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="97"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="94"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -1996,11 +1996,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="97"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="94"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2033,11 +2033,11 @@
       <c r="M14" s="65"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="97"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="94"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2070,11 +2070,11 @@
       <c r="M15" s="65"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="97"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="94"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2107,11 +2107,11 @@
       <c r="M16" s="25"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="97"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="94"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2144,11 +2144,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="97"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="94"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2178,14 +2178,14 @@
       <c r="J18" s="21"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="97"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="94"/>
       <c r="U18" s="21"/>
       <c r="V18" s="22"/>
       <c r="W18" s="21"/>
@@ -2215,14 +2215,14 @@
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="97"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="94"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2252,14 +2252,14 @@
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="97"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="94"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2289,14 +2289,14 @@
       <c r="J21" s="21"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="97"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="94"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2326,14 +2326,14 @@
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="97"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="94"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2366,11 +2366,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="97"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="94"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2403,19 +2403,19 @@
       <c r="M24" s="25"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="97"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="94"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
       <c r="X24" s="22"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="108"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="75"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
@@ -2440,21 +2440,21 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="97"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="94"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="25"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="108"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="75"/>
       <c r="AE25" s="22"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="5"/>
@@ -2477,17 +2477,17 @@
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="97"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="94"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="110"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="77"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="21"/>
@@ -2514,13 +2514,13 @@
       <c r="M27" s="24"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="108"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
@@ -2551,21 +2551,21 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="97"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="94"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="24"/>
-      <c r="AA28" s="107"/>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="108"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="75"/>
       <c r="AE28" s="22"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="5"/>
@@ -2588,17 +2588,17 @@
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="97"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="94"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
-      <c r="Z29" s="109"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="76"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="21"/>
@@ -2625,13 +2625,13 @@
       <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="108"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="75"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
@@ -2662,11 +2662,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="97"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="94"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2699,11 +2699,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="97"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="94"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2713,8 +2713,8 @@
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
       <c r="AC32" s="21"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="106"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="5"/>
     </row>
@@ -2736,11 +2736,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="97"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="94"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2750,8 +2750,8 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
       <c r="AC33" s="21"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="5"/>
     </row>
@@ -2773,11 +2773,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="97"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="94"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2787,8 +2787,8 @@
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="21"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="106"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="5"/>
     </row>
@@ -2810,11 +2810,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="97"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="94"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2824,8 +2824,8 @@
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
       <c r="AC35" s="21"/>
-      <c r="AD35" s="106"/>
-      <c r="AE35" s="106"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="5"/>
     </row>
@@ -2847,11 +2847,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="97"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="94"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2861,8 +2861,8 @@
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="106"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
       <c r="AF36" s="24"/>
       <c r="AG36" s="5"/>
     </row>
@@ -2884,11 +2884,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="97"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="94"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2898,8 +2898,8 @@
       <c r="AA37" s="21"/>
       <c r="AB37" s="22"/>
       <c r="AC37" s="21"/>
-      <c r="AD37" s="106"/>
-      <c r="AE37" s="106"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
       <c r="AF37" s="24"/>
       <c r="AG37" s="5"/>
     </row>
@@ -2921,11 +2921,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="97"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="94"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -2936,8 +2936,8 @@
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="22"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="105"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="72"/>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2958,11 +2958,11 @@
       <c r="M39" s="24"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="97"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="94"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -2973,8 +2973,8 @@
       <c r="AB39" s="22"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="22"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="105"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="72"/>
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
@@ -2995,11 +2995,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="97"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="94"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3032,11 +3032,11 @@
       <c r="M41" s="46"/>
       <c r="N41" s="41"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="97"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="94"/>
       <c r="U41" s="41"/>
       <c r="V41" s="44"/>
       <c r="W41" s="41"/>
@@ -3066,26 +3066,26 @@
       <c r="J42" s="41"/>
       <c r="K42" s="44"/>
       <c r="L42" s="44"/>
-      <c r="M42" s="99"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="97"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="94"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
       <c r="X42" s="44"/>
       <c r="Y42" s="44"/>
-      <c r="Z42" s="99"/>
+      <c r="Z42" s="66"/>
       <c r="AA42" s="41"/>
       <c r="AB42" s="44"/>
       <c r="AC42" s="41"/>
       <c r="AD42" s="44"/>
       <c r="AE42" s="44"/>
-      <c r="AF42" s="99"/>
+      <c r="AF42" s="66"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3103,36 +3103,30 @@
       <c r="J43" s="26"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
-      <c r="M43" s="100"/>
+      <c r="M43" s="67"/>
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="94"/>
-      <c r="R43" s="94"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="98"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="95"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
       <c r="W43" s="26"/>
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
-      <c r="Z43" s="100"/>
+      <c r="Z43" s="67"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="27"/>
       <c r="AC43" s="26"/>
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
-      <c r="AF43" s="100"/>
+      <c r="AF43" s="67"/>
       <c r="AG43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S43"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T43"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3149,6 +3143,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S43"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE37F38-6509-49A1-8F67-9AE65C6ABC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882FB687-3C18-4944-BE74-F9526EC42A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Tâches</t>
   </si>
@@ -188,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
@@ -803,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,6 +1024,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1483,7 @@
   <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1456,40 +1494,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1502,26 +1540,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="111"/>
+      <c r="O2" s="114"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1548,20 +1586,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1587,47 +1625,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="100" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="105" t="s">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="107"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="110"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="97" t="s">
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="99"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="102"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1640,57 +1678,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="106">
         <v>45008</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="92">
+      <c r="C5" s="107"/>
+      <c r="D5" s="95">
         <v>45009</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90">
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93">
         <v>45015</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88">
+      <c r="I5" s="91"/>
+      <c r="J5" s="91">
         <v>45016</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90">
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93">
         <v>45023</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92">
+      <c r="O5" s="94"/>
+      <c r="P5" s="95">
         <v>45024</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="90">
+      <c r="U5" s="93">
         <v>45043</v>
       </c>
-      <c r="V5" s="91"/>
-      <c r="W5" s="92">
+      <c r="V5" s="94"/>
+      <c r="W5" s="95">
         <v>45044</v>
       </c>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="90">
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="93">
         <v>45050</v>
       </c>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="92">
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="95">
         <v>45051</v>
       </c>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="89"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="92"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1733,13 +1771,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="79" t="s">
+      <c r="P6" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="93" t="s">
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="96" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1774,11 +1812,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="94"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="97"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1806,16 +1844,18 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="64"/>
+      <c r="K8" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="L8" s="64"/>
       <c r="M8" s="65"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="94"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="97"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1843,16 +1883,18 @@
       <c r="H9" s="21"/>
       <c r="I9" s="22"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="L9" s="64"/>
       <c r="M9" s="65"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="94"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="97"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1885,11 +1927,11 @@
       <c r="M10" s="65"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="94"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="97"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1917,16 +1959,18 @@
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="64"/>
+      <c r="K11" s="81" t="s">
+        <v>12</v>
+      </c>
       <c r="L11" s="64"/>
       <c r="M11" s="65"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="94"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="97"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -1954,16 +1998,18 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="64"/>
+      <c r="K12" s="81" t="s">
+        <v>12</v>
+      </c>
       <c r="L12" s="64"/>
       <c r="M12" s="65"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="94"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="97"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -1996,11 +2042,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="94"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="97"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2028,16 +2074,18 @@
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="64"/>
+      <c r="K14" s="80" t="s">
+        <v>12</v>
+      </c>
       <c r="L14" s="64"/>
       <c r="M14" s="65"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="94"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="97"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2065,16 +2113,18 @@
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="80" t="s">
+        <v>12</v>
+      </c>
       <c r="L15" s="64"/>
       <c r="M15" s="65"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="94"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="97"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2102,16 +2152,16 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="25"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="94"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="97"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2144,11 +2194,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="94"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2181,11 +2231,11 @@
       <c r="M18" s="70"/>
       <c r="N18" s="68"/>
       <c r="O18" s="69"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="94"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="97"/>
       <c r="U18" s="21"/>
       <c r="V18" s="22"/>
       <c r="W18" s="21"/>
@@ -2218,11 +2268,11 @@
       <c r="M19" s="70"/>
       <c r="N19" s="68"/>
       <c r="O19" s="69"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="94"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="97"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2255,11 +2305,11 @@
       <c r="M20" s="70"/>
       <c r="N20" s="68"/>
       <c r="O20" s="69"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="94"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="97"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2292,11 +2342,11 @@
       <c r="M21" s="70"/>
       <c r="N21" s="68"/>
       <c r="O21" s="69"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="94"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="97"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2329,11 +2379,11 @@
       <c r="M22" s="70"/>
       <c r="N22" s="68"/>
       <c r="O22" s="69"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="94"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="97"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2366,11 +2416,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="94"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="97"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2403,11 +2453,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="94"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="97"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
@@ -2440,11 +2490,11 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="94"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="97"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
@@ -2477,11 +2527,11 @@
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="94"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="74"/>
@@ -2514,11 +2564,11 @@
       <c r="M27" s="24"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="94"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="97"/>
       <c r="U27" s="74"/>
       <c r="V27" s="75"/>
       <c r="W27" s="21"/>
@@ -2551,11 +2601,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="94"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="97"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
@@ -2588,11 +2638,11 @@
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="94"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="97"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="74"/>
@@ -2625,11 +2675,11 @@
       <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="94"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="97"/>
       <c r="U30" s="74"/>
       <c r="V30" s="75"/>
       <c r="W30" s="21"/>
@@ -2662,11 +2712,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="94"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="97"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2699,11 +2749,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="94"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="97"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2736,11 +2786,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="94"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="97"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2773,11 +2823,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="94"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="97"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2810,11 +2860,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="94"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2847,11 +2897,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="94"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2884,11 +2934,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="94"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2921,11 +2971,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="94"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -2958,11 +3008,11 @@
       <c r="M39" s="24"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="94"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="97"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -2995,11 +3045,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="94"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="97"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3026,17 +3076,19 @@
       <c r="G41" s="45"/>
       <c r="H41" s="41"/>
       <c r="I41" s="44"/>
-      <c r="J41" s="62"/>
+      <c r="J41" s="62" t="s">
+        <v>12</v>
+      </c>
       <c r="K41" s="63"/>
       <c r="L41" s="44"/>
       <c r="M41" s="46"/>
       <c r="N41" s="41"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="94"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="41"/>
       <c r="V41" s="44"/>
       <c r="W41" s="41"/>
@@ -3069,11 +3121,11 @@
       <c r="M42" s="66"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="94"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
@@ -3106,11 +3158,11 @@
       <c r="M43" s="67"/>
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="95"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="98"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
       <c r="W43" s="26"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882FB687-3C18-4944-BE74-F9526EC42A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71FE0D-8D75-4D50-9A50-5FA4A690353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -1035,6 +1035,69 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1062,21 +1125,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1085,54 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1494,40 +1494,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1540,26 +1540,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="114" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="114"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1586,20 +1586,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1625,47 +1625,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="108" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="110"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="97"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="100" t="s">
+      <c r="U4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="100" t="s">
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="102"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="85"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1678,57 +1678,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="89">
         <v>45008</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="95">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91">
         <v>45009</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94">
         <v>45015</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92">
         <v>45016</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="93">
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94">
         <v>45023</v>
       </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95">
+      <c r="O5" s="102"/>
+      <c r="P5" s="91">
         <v>45024</v>
       </c>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="93">
+      <c r="U5" s="94">
         <v>45043</v>
       </c>
-      <c r="V5" s="94"/>
-      <c r="W5" s="95">
+      <c r="V5" s="102"/>
+      <c r="W5" s="91">
         <v>45044</v>
       </c>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="93">
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94">
         <v>45050</v>
       </c>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="95">
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="91">
         <v>45051</v>
       </c>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="93"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1771,13 +1771,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="82" t="s">
+      <c r="P6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="96" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="112" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1812,11 +1812,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="97"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="113"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1851,11 +1851,11 @@
       <c r="M8" s="65"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="97"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="113"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1890,11 +1890,11 @@
       <c r="M9" s="65"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="97"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="113"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1927,11 +1927,11 @@
       <c r="M10" s="65"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="97"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="113"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1966,11 +1966,11 @@
       <c r="M11" s="65"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="97"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="113"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2005,11 +2005,11 @@
       <c r="M12" s="65"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="97"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="113"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2042,11 +2042,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="97"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="113"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2081,11 +2081,11 @@
       <c r="M14" s="65"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="97"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="113"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2120,11 +2120,11 @@
       <c r="M15" s="65"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="97"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="113"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2157,11 +2157,11 @@
       <c r="M16" s="79"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="97"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="113"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2194,11 +2194,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="97"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="113"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2231,11 +2231,11 @@
       <c r="M18" s="70"/>
       <c r="N18" s="68"/>
       <c r="O18" s="69"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="97"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="113"/>
       <c r="U18" s="21"/>
       <c r="V18" s="22"/>
       <c r="W18" s="21"/>
@@ -2268,11 +2268,11 @@
       <c r="M19" s="70"/>
       <c r="N19" s="68"/>
       <c r="O19" s="69"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="97"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="113"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2305,11 +2305,11 @@
       <c r="M20" s="70"/>
       <c r="N20" s="68"/>
       <c r="O20" s="69"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="97"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="113"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2342,11 +2342,11 @@
       <c r="M21" s="70"/>
       <c r="N21" s="68"/>
       <c r="O21" s="69"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="97"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2379,11 +2379,11 @@
       <c r="M22" s="70"/>
       <c r="N22" s="68"/>
       <c r="O22" s="69"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="97"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="113"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2416,11 +2416,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="97"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="113"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2453,11 +2453,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="97"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="113"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
@@ -2490,11 +2490,11 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="97"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="113"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
@@ -2527,11 +2527,11 @@
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="97"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="113"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="74"/>
@@ -2564,11 +2564,11 @@
       <c r="M27" s="24"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="97"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="113"/>
       <c r="U27" s="74"/>
       <c r="V27" s="75"/>
       <c r="W27" s="21"/>
@@ -2601,11 +2601,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="97"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="113"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
@@ -2638,11 +2638,11 @@
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="97"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="113"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="74"/>
@@ -2675,11 +2675,11 @@
       <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="97"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="113"/>
       <c r="U30" s="74"/>
       <c r="V30" s="75"/>
       <c r="W30" s="21"/>
@@ -2712,11 +2712,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="97"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="113"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2749,11 +2749,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="97"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="113"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2786,11 +2786,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="97"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="113"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2823,11 +2823,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="97"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="113"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2860,11 +2860,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="97"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="113"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2897,11 +2897,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="97"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="113"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2934,11 +2934,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="97"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="113"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2971,22 +2971,22 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="97"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="113"/>
       <c r="U38" s="21"/>
-      <c r="V38" s="22"/>
+      <c r="V38" s="71"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
-      <c r="Z38" s="24"/>
+      <c r="Z38" s="72"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="22"/>
       <c r="AF38" s="72"/>
       <c r="AG38" s="5"/>
     </row>
@@ -3008,22 +3008,22 @@
       <c r="M39" s="24"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="97"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="113"/>
       <c r="U39" s="21"/>
-      <c r="V39" s="22"/>
+      <c r="V39" s="71"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
-      <c r="Z39" s="24"/>
+      <c r="Z39" s="72"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="22"/>
       <c r="AC39" s="21"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="22"/>
       <c r="AF39" s="72"/>
       <c r="AG39" s="5"/>
     </row>
@@ -3045,11 +3045,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="97"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="113"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3084,11 +3084,11 @@
       <c r="M41" s="46"/>
       <c r="N41" s="41"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="97"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="113"/>
       <c r="U41" s="41"/>
       <c r="V41" s="44"/>
       <c r="W41" s="41"/>
@@ -3121,11 +3121,11 @@
       <c r="M42" s="66"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="97"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="113"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
@@ -3158,11 +3158,11 @@
       <c r="M43" s="67"/>
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="98"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="110"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="114"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
       <c r="W43" s="26"/>
@@ -3179,6 +3179,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S43"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T43"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3195,12 +3201,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S43"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71FE0D-8D75-4D50-9A50-5FA4A690353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE5EB0-C06D-4AE5-A6EB-746467A826C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Tâches</t>
   </si>
@@ -294,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,13 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -993,15 +987,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,21 +996,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,6 +1004,57 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,18 +1083,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,44 +1104,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1494,40 +1491,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1540,26 +1537,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="101" t="s">
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="106"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1586,20 +1583,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1625,47 +1622,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="86" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="95" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="97"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="83" t="s">
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="85"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1678,57 +1675,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="98">
         <v>45008</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91">
+      <c r="C5" s="99"/>
+      <c r="D5" s="87">
         <v>45009</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85">
         <v>45015</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83">
         <v>45016</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94">
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85">
         <v>45023</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="91">
+      <c r="O5" s="86"/>
+      <c r="P5" s="87">
         <v>45024</v>
       </c>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="94">
+      <c r="U5" s="85">
         <v>45043</v>
       </c>
-      <c r="V5" s="102"/>
-      <c r="W5" s="91">
+      <c r="V5" s="86"/>
+      <c r="W5" s="87">
         <v>45044</v>
       </c>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="94">
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85">
         <v>45050</v>
       </c>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="91">
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="87">
         <v>45051</v>
       </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="93"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="84"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1771,13 +1768,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="112" t="s">
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="88" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1812,11 +1809,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="113"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="89"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1848,14 +1845,14 @@
         <v>12</v>
       </c>
       <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="113"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="89"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1887,14 +1884,14 @@
         <v>12</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="113"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="89"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1924,14 +1921,14 @@
       <c r="J10" s="21"/>
       <c r="K10" s="64"/>
       <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="113"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="89"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1959,18 +1956,18 @@
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="113"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="89"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -1998,18 +1995,18 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="113"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="89"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2037,16 +2034,16 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="64"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="64"/>
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="113"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="89"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2074,18 +2071,18 @@
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="113"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="89"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2113,18 +2110,18 @@
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="113"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="89"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2152,16 +2149,16 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="64"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="79"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="113"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="89"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2194,11 +2191,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="113"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="89"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2228,16 +2225,16 @@
       <c r="J18" s="21"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="110"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2265,20 +2262,20 @@
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="113"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="89"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="25"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="114"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="21"/>
@@ -2302,17 +2299,16 @@
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="113"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="89"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
-      <c r="W20" s="21"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="25"/>
@@ -2339,20 +2335,20 @@
       <c r="J21" s="21"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="113"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="89"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="25"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="114"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="21"/>
@@ -2376,14 +2372,14 @@
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="113"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="89"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2416,11 +2412,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="113"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="89"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2453,19 +2449,19 @@
       <c r="M24" s="25"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="113"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="89"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="75"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="22"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
@@ -2490,21 +2486,21 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="113"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="89"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="75"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="5"/>
@@ -2526,18 +2522,18 @@
       <c r="L26" s="22"/>
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="77"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="21"/>
@@ -2561,16 +2557,16 @@
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="24"/>
+      <c r="M27" s="107"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="75"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
@@ -2601,21 +2597,21 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="113"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="89"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="75"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="5"/>
@@ -2637,18 +2633,18 @@
       <c r="L29" s="22"/>
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="76"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="24"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="21"/>
@@ -2672,16 +2668,16 @@
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="24"/>
+      <c r="M30" s="107"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="75"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
@@ -2712,11 +2708,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="113"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="89"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2749,11 +2745,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="113"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="89"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2762,9 +2758,9 @@
       <c r="Z32" s="24"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
+      <c r="AC32" s="115"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="22"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="5"/>
     </row>
@@ -2786,11 +2782,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="113"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="89"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2799,9 +2795,9 @@
       <c r="Z33" s="24"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
+      <c r="AC33" s="115"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="22"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="5"/>
     </row>
@@ -2823,11 +2819,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="113"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="89"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2836,9 +2832,9 @@
       <c r="Z34" s="24"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
+      <c r="AC34" s="115"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="22"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="5"/>
     </row>
@@ -2860,11 +2856,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="113"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="89"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2873,9 +2869,9 @@
       <c r="Z35" s="24"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
+      <c r="AC35" s="115"/>
+      <c r="AD35" s="70"/>
+      <c r="AE35" s="22"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="5"/>
     </row>
@@ -2897,11 +2893,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="113"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="89"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2910,9 +2906,9 @@
       <c r="Z36" s="24"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="73"/>
+      <c r="AC36" s="115"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="22"/>
       <c r="AF36" s="24"/>
       <c r="AG36" s="5"/>
     </row>
@@ -2934,11 +2930,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="113"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="89"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2947,9 +2943,9 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="22"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="73"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="22"/>
       <c r="AF37" s="24"/>
       <c r="AG37" s="5"/>
     </row>
@@ -2968,26 +2964,26 @@
       <c r="J38" s="21"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="24"/>
+      <c r="M38" s="69"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="113"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="89"/>
       <c r="U38" s="21"/>
-      <c r="V38" s="71"/>
+      <c r="V38" s="68"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="72"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="24"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="72"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="24"/>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3005,26 +3001,26 @@
       <c r="J39" s="21"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="24"/>
+      <c r="M39" s="69"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="113"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="89"/>
       <c r="U39" s="21"/>
-      <c r="V39" s="71"/>
+      <c r="V39" s="68"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="72"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="24"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="22"/>
       <c r="AC39" s="21"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="72"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="24"/>
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
@@ -3045,11 +3041,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="113"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="89"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3080,15 +3076,17 @@
         <v>12</v>
       </c>
       <c r="K41" s="63"/>
-      <c r="L41" s="44"/>
+      <c r="L41" s="44" t="s">
+        <v>12</v>
+      </c>
       <c r="M41" s="46"/>
       <c r="N41" s="41"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="113"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="89"/>
       <c r="U41" s="41"/>
       <c r="V41" s="44"/>
       <c r="W41" s="41"/>
@@ -3121,11 +3119,11 @@
       <c r="M42" s="66"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="113"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="89"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
@@ -3158,11 +3156,11 @@
       <c r="M43" s="67"/>
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="110"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="114"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="90"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
       <c r="W43" s="26"/>
@@ -3179,12 +3177,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S43"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T43"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3201,6 +3193,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S43"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE5EB0-C06D-4AE5-A6EB-746467A826C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79361B1-A5AB-4F9A-A862-A99DE16F51FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Tâches</t>
   </si>
@@ -1005,6 +1005,96 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1032,21 +1122,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1055,81 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,8 +1479,8 @@
   </sheetPr>
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1491,40 +1491,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1537,26 +1537,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="106" t="s">
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="106"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1583,20 +1583,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1622,47 +1622,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="95" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="100" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="92" t="s">
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="86"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1675,57 +1675,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="90">
         <v>45008</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="87">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92">
         <v>45009</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85">
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95">
         <v>45015</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83">
+      <c r="I5" s="93"/>
+      <c r="J5" s="93">
         <v>45016</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="85">
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95">
         <v>45023</v>
       </c>
-      <c r="O5" s="86"/>
-      <c r="P5" s="87">
+      <c r="O5" s="103"/>
+      <c r="P5" s="92">
         <v>45024</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="85">
+      <c r="U5" s="95">
         <v>45043</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="87">
+      <c r="V5" s="103"/>
+      <c r="W5" s="92">
         <v>45044</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85">
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="95">
         <v>45050</v>
       </c>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="87">
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="92">
         <v>45051</v>
       </c>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="84"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1768,13 +1768,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="88" t="s">
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="113" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1809,11 +1809,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="89"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="114"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1848,11 +1848,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="89"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="114"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1887,11 +1887,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="89"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="114"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1920,15 +1920,17 @@
       <c r="I10" s="22"/>
       <c r="J10" s="21"/>
       <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="L10" s="64" t="s">
+        <v>12</v>
+      </c>
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="89"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="114"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1963,11 +1965,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="89"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="114"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2002,11 +2004,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="89"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="114"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2034,16 +2036,16 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="108"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="64"/>
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="89"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="114"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2078,11 +2080,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="89"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="114"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2117,11 +2119,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="89"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="114"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2149,16 +2151,16 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="108"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="64"/>
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="89"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="114"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2191,11 +2193,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="89"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="114"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2228,13 +2230,13 @@
       <c r="M18" s="25"/>
       <c r="N18" s="21"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="110"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="77"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2265,17 +2267,17 @@
       <c r="M19" s="25"/>
       <c r="N19" s="21"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="89"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="114"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="114"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="81"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="21"/>
@@ -2300,13 +2302,13 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="89"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="114"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="X20" s="22"/>
@@ -2338,17 +2340,17 @@
       <c r="M21" s="25"/>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="89"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="114"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="114"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="81"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="21"/>
@@ -2373,13 +2375,13 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="89"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="114"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2412,11 +2414,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="89"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="114"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2449,16 +2451,16 @@
       <c r="M24" s="25"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="89"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="114"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22"/>
@@ -2486,19 +2488,19 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="89"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="114"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="111"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="78"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -2522,14 +2524,14 @@
       <c r="L26" s="22"/>
       <c r="M26" s="23"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="111"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="78"/>
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
@@ -2557,14 +2559,14 @@
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="107"/>
+      <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="89"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="114"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2597,19 +2599,19 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="89"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
       <c r="X28" s="22"/>
       <c r="Y28" s="22"/>
-      <c r="Z28" s="107"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="111"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="78"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
@@ -2633,14 +2635,14 @@
       <c r="L29" s="22"/>
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="111"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="78"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
@@ -2668,14 +2670,14 @@
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="107"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="89"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="114"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2708,11 +2710,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="89"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="114"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2745,11 +2747,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="89"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="114"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2758,7 +2760,7 @@
       <c r="Z32" s="24"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="115"/>
+      <c r="AC32" s="82"/>
       <c r="AD32" s="70"/>
       <c r="AE32" s="22"/>
       <c r="AF32" s="24"/>
@@ -2782,11 +2784,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="21"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="89"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="114"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2795,7 +2797,7 @@
       <c r="Z33" s="24"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
-      <c r="AC33" s="115"/>
+      <c r="AC33" s="82"/>
       <c r="AD33" s="70"/>
       <c r="AE33" s="22"/>
       <c r="AF33" s="24"/>
@@ -2819,11 +2821,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="89"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="114"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2832,7 +2834,7 @@
       <c r="Z34" s="24"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
-      <c r="AC34" s="115"/>
+      <c r="AC34" s="82"/>
       <c r="AD34" s="70"/>
       <c r="AE34" s="22"/>
       <c r="AF34" s="24"/>
@@ -2856,11 +2858,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="89"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="114"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2869,7 +2871,7 @@
       <c r="Z35" s="24"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
-      <c r="AC35" s="115"/>
+      <c r="AC35" s="82"/>
       <c r="AD35" s="70"/>
       <c r="AE35" s="22"/>
       <c r="AF35" s="24"/>
@@ -2893,11 +2895,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="89"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="114"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2906,7 +2908,7 @@
       <c r="Z36" s="24"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
-      <c r="AC36" s="115"/>
+      <c r="AC36" s="82"/>
       <c r="AD36" s="70"/>
       <c r="AE36" s="22"/>
       <c r="AF36" s="24"/>
@@ -2930,11 +2932,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="89"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="114"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2943,7 +2945,7 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="22"/>
-      <c r="AC37" s="115"/>
+      <c r="AC37" s="82"/>
       <c r="AD37" s="70"/>
       <c r="AE37" s="22"/>
       <c r="AF37" s="24"/>
@@ -2967,11 +2969,11 @@
       <c r="M38" s="69"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="89"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="114"/>
       <c r="U38" s="21"/>
       <c r="V38" s="68"/>
       <c r="W38" s="21"/>
@@ -3004,11 +3006,11 @@
       <c r="M39" s="69"/>
       <c r="N39" s="21"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="89"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="114"/>
       <c r="U39" s="21"/>
       <c r="V39" s="68"/>
       <c r="W39" s="21"/>
@@ -3041,11 +3043,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="89"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="114"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3082,11 +3084,11 @@
       <c r="M41" s="46"/>
       <c r="N41" s="41"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="89"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="114"/>
       <c r="U41" s="41"/>
       <c r="V41" s="44"/>
       <c r="W41" s="41"/>
@@ -3119,11 +3121,11 @@
       <c r="M42" s="66"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="89"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="114"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
@@ -3156,11 +3158,11 @@
       <c r="M43" s="67"/>
       <c r="N43" s="26"/>
       <c r="O43" s="27"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="90"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="115"/>
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
       <c r="W43" s="26"/>
@@ -3177,6 +3179,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S43"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T43"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3193,12 +3201,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S43"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79361B1-A5AB-4F9A-A862-A99DE16F51FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90889925-F15A-41D9-8CBE-A4032F206188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -149,9 +149,6 @@
     <t>API Gateway Tomcat</t>
   </si>
   <si>
-    <t xml:space="preserve">Scénario global Client </t>
-  </si>
-  <si>
     <t>Scénario global Admin</t>
   </si>
   <si>
@@ -195,6 +192,21 @@
   </si>
   <si>
     <t>base de données Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 test </t>
+  </si>
+  <si>
+    <t>Service REST Admin</t>
+  </si>
+  <si>
+    <t>Service REST Classement</t>
+  </si>
+  <si>
+    <t>API gateway</t>
+  </si>
+  <si>
+    <t>Scénario global Client</t>
   </si>
 </sst>
 </file>
@@ -826,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,14 +1035,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1130,6 +1139,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1477,10 +1500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1491,40 +1514,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1537,26 +1560,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="102" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="102"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1583,20 +1606,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1622,47 +1645,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="87" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="96" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="98"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="97"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="84" t="s">
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="86"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="85"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1675,57 +1698,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="89">
         <v>45008</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91">
         <v>45009</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94">
         <v>45015</v>
       </c>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92">
         <v>45016</v>
       </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95">
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94">
         <v>45023</v>
       </c>
-      <c r="O5" s="103"/>
-      <c r="P5" s="92">
+      <c r="O5" s="102"/>
+      <c r="P5" s="91">
         <v>45024</v>
       </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="94"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="95">
+      <c r="U5" s="94">
         <v>45043</v>
       </c>
-      <c r="V5" s="103"/>
-      <c r="W5" s="92">
+      <c r="V5" s="102"/>
+      <c r="W5" s="91">
         <v>45044</v>
       </c>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="95">
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94">
         <v>45050</v>
       </c>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="92">
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="91">
         <v>45051</v>
       </c>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="94"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="93"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1768,13 +1791,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="104" t="s">
+      <c r="P6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="113" t="s">
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="112" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1809,11 +1832,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="114"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="113"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1848,11 +1871,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="114"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="113"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1887,11 +1910,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="114"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="113"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1926,11 +1949,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="114"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="113"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1965,11 +1988,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="114"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="113"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2004,11 +2027,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="114"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="113"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2041,11 +2064,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="114"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="113"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2080,11 +2103,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="114"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="113"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2119,11 +2142,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="114"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="113"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2156,11 +2179,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="114"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="113"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2193,11 +2216,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="114"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="113"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2228,15 +2251,15 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="77"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="75"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2251,7 +2274,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="30"/>
@@ -2265,19 +2288,19 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="114"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="113"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="81"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="22"/>
       <c r="AC19" s="21"/>
@@ -2304,13 +2327,14 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="114"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="113"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
+      <c r="W20" s="21"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="25"/>
@@ -2324,7 +2348,7 @@
     </row>
     <row r="21" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="30"/>
@@ -2338,19 +2362,19 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="114"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
       <c r="X21" s="22"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="81"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="25"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="21"/>
@@ -2377,11 +2401,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="114"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="113"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2414,11 +2438,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="114"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="113"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2449,15 +2473,15 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="22"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="78"/>
       <c r="W24" s="79"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="78"/>
@@ -2472,7 +2496,7 @@
     </row>
     <row r="25" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="30"/>
@@ -2488,19 +2512,19 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="114"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="113"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="22"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -2521,17 +2545,21 @@
       <c r="I26" s="22"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="78"/>
+      <c r="L26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="79"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="21"/>
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
@@ -2558,15 +2586,17 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="114"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="113"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2583,7 +2613,7 @@
     </row>
     <row r="28" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="30"/>
@@ -2599,19 +2629,19 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="114"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="113"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
       <c r="Z28" s="74"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="78"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="22"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
@@ -2620,7 +2650,7 @@
     </row>
     <row r="29" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="30"/>
@@ -2633,16 +2663,18 @@
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="78"/>
+      <c r="M29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="79"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
@@ -2657,7 +2689,7 @@
     </row>
     <row r="30" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="30"/>
@@ -2669,15 +2701,17 @@
       <c r="I30" s="22"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="M30" s="74"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="114"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="113"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2710,11 +2744,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="114"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="113"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2747,28 +2781,28 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="114"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="113"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
+      <c r="Y32" s="70"/>
       <c r="Z32" s="24"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="82"/>
-      <c r="AD32" s="70"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="22"/>
       <c r="AE32" s="22"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="30"/>
@@ -2782,13 +2816,13 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="114"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="113"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2797,15 +2831,15 @@
       <c r="Z33" s="24"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="70"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="22"/>
       <c r="AE33" s="22"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="30"/>
@@ -2821,28 +2855,28 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="114"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="113"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="24"/>
+      <c r="Z34" s="120"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
-      <c r="AC34" s="82"/>
-      <c r="AD34" s="70"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="22"/>
       <c r="AE34" s="22"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="5"/>
     </row>
     <row r="35" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="30"/>
@@ -2856,13 +2890,13 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="114"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="113"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2871,15 +2905,15 @@
       <c r="Z35" s="24"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="70"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="22"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="5"/>
     </row>
     <row r="36" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="30"/>
@@ -2895,21 +2929,21 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="114"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="113"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="24"/>
+      <c r="Z36" s="120"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="70"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="22"/>
       <c r="AE36" s="22"/>
       <c r="AF36" s="24"/>
       <c r="AG36" s="5"/>
@@ -2932,11 +2966,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="114"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="113"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2945,15 +2979,15 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="22"/>
-      <c r="AC37" s="82"/>
-      <c r="AD37" s="70"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="22"/>
       <c r="AF37" s="24"/>
       <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>38</v>
+      <c r="A38" s="115" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="30"/>
@@ -2966,31 +3000,31 @@
       <c r="J38" s="21"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="69"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="114"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="113"/>
       <c r="U38" s="21"/>
-      <c r="V38" s="68"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="68"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="21"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="117"/>
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="22"/>
-      <c r="AE38" s="68"/>
+      <c r="AE38" s="22"/>
       <c r="AF38" s="24"/>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>39</v>
+      <c r="A39" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="30"/>
@@ -3003,31 +3037,31 @@
       <c r="J39" s="21"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="117"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="114"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="113"/>
       <c r="U39" s="21"/>
-      <c r="V39" s="68"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
-      <c r="Y39" s="68"/>
+      <c r="Y39" s="22"/>
       <c r="Z39" s="24"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="22"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="22"/>
-      <c r="AE39" s="68"/>
+      <c r="AE39" s="22"/>
       <c r="AF39" s="24"/>
       <c r="AG39" s="5"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>40</v>
+    <row r="40" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="30"/>
@@ -3043,11 +3077,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="114"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="113"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3055,136 +3089,252 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="24"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="117"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="5"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
+    <row r="41" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="63"/>
+      <c r="L44" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="46"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="63"/>
-      <c r="L41" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="5"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="46" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="5"/>
-    </row>
-    <row r="43" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="115"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="5"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="67"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S43"/>
+    <mergeCell ref="P6:S46"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T43"/>
+    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90889925-F15A-41D9-8CBE-A4032F206188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB985EA2-F742-4AE3-AEF9-5636C401480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -1041,105 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,6 +1054,105 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,7 +1502,7 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
@@ -1514,40 +1514,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1560,26 +1560,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="101" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="101"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1606,20 +1606,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1645,47 +1645,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="86" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="95" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="97"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="83" t="s">
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="85"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="108"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1698,57 +1698,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="112">
         <v>45008</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91">
+      <c r="C5" s="113"/>
+      <c r="D5" s="101">
         <v>45009</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94">
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99">
         <v>45015</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92">
+      <c r="I5" s="97"/>
+      <c r="J5" s="97">
         <v>45016</v>
       </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99">
         <v>45023</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="91">
+      <c r="O5" s="100"/>
+      <c r="P5" s="101">
         <v>45024</v>
       </c>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="94">
+      <c r="U5" s="99">
         <v>45043</v>
       </c>
-      <c r="V5" s="102"/>
-      <c r="W5" s="91">
+      <c r="V5" s="100"/>
+      <c r="W5" s="101">
         <v>45044</v>
       </c>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="94">
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="99">
         <v>45050</v>
       </c>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="91">
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="101">
         <v>45051</v>
       </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="93"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="98"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1791,13 +1791,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="112" t="s">
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="102" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1832,11 +1832,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="113"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="103"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1871,11 +1871,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="113"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="103"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1910,11 +1910,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="113"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="103"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1949,11 +1949,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="113"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="103"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1988,11 +1988,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="113"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="103"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2027,11 +2027,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="113"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="103"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2064,11 +2064,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="113"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="103"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2103,11 +2103,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="113"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="103"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2142,11 +2142,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="113"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="103"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2179,11 +2179,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="113"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="103"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2216,11 +2216,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="113"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="103"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2253,12 +2253,12 @@
       <c r="M18" s="25"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="119"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="86"/>
       <c r="V18" s="75"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
@@ -2290,11 +2290,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="113"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="103"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2327,11 +2327,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="113"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="103"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2364,11 +2364,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="113"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="103"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2401,11 +2401,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="113"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="103"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2438,11 +2438,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="113"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="103"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2475,11 +2475,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="79"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="113"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="103"/>
       <c r="U24" s="79"/>
       <c r="V24" s="78"/>
       <c r="W24" s="79"/>
@@ -2512,17 +2512,17 @@
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="113"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="103"/>
       <c r="U25" s="21"/>
       <c r="V25" s="78"/>
       <c r="W25" s="79"/>
       <c r="X25" s="78"/>
       <c r="Y25" s="78"/>
-      <c r="Z25" s="118"/>
+      <c r="Z25" s="85"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="21"/>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="N26" s="79"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="113"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="103"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2592,11 +2592,11 @@
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="113"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="103"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2629,11 +2629,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="113"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="103"/>
       <c r="U28" s="21"/>
       <c r="V28" s="78"/>
       <c r="W28" s="79"/>
@@ -2668,11 +2668,11 @@
       </c>
       <c r="N29" s="79"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="113"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="103"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
@@ -2707,11 +2707,11 @@
       <c r="M30" s="74"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="113"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="103"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2744,11 +2744,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="113"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="103"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2781,11 +2781,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="113"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="103"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2818,11 +2818,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="113"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="103"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2855,17 +2855,17 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="113"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="103"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="120"/>
+      <c r="Z34" s="87"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="21"/>
@@ -2892,11 +2892,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="113"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="103"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2929,17 +2929,17 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="113"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="103"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="120"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
@@ -2966,11 +2966,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="113"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="103"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -2986,7 +2986,7 @@
       <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="82" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="21"/>
@@ -3003,18 +3003,18 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="113"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="103"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="68"/>
       <c r="Z38" s="69"/>
-      <c r="AA38" s="117"/>
+      <c r="AA38" s="84"/>
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="22"/>
@@ -3038,13 +3038,13 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="117"/>
+      <c r="N39" s="84"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="113"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="103"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3077,11 +3077,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="113"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="103"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3090,7 +3090,7 @@
       <c r="Z40" s="24"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="68"/>
-      <c r="AC40" s="117"/>
+      <c r="AC40" s="84"/>
       <c r="AD40" s="68"/>
       <c r="AE40" s="68"/>
       <c r="AF40" s="24"/>
@@ -3112,13 +3112,13 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="117"/>
+      <c r="N41" s="84"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="113"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="103"/>
       <c r="U41" s="21"/>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
@@ -3151,11 +3151,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="113"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="103"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3164,14 +3164,14 @@
       <c r="Z42" s="24"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="68"/>
-      <c r="AC42" s="117"/>
+      <c r="AC42" s="84"/>
       <c r="AD42" s="68"/>
       <c r="AE42" s="68"/>
       <c r="AF42" s="24"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="83" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="21"/>
@@ -3188,11 +3188,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="113"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="103"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3229,11 +3229,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="107"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="113"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="93"/>
+      <c r="T44" s="103"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3266,11 +3266,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="113"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="103"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3303,11 +3303,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="114"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="104"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3329,12 +3329,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3351,6 +3345,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB985EA2-F742-4AE3-AEF9-5636C401480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494305FF-214E-4CDF-9A20-4115C989EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1055,6 +1055,69 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1082,21 +1145,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1106,53 +1154,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1502,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1514,40 +1532,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1560,26 +1578,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="120" t="s">
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="120"/>
+      <c r="O2" s="107"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1606,20 +1624,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1645,47 +1663,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="109" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="114" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="116"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="103"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="106" t="s">
+      <c r="U4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="106" t="s">
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="108"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="91"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1698,57 +1716,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="95">
         <v>45008</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="101">
+      <c r="C5" s="96"/>
+      <c r="D5" s="97">
         <v>45009</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99">
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100">
         <v>45015</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97">
+      <c r="I5" s="98"/>
+      <c r="J5" s="98">
         <v>45016</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99">
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="100">
         <v>45023</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101">
+      <c r="O5" s="108"/>
+      <c r="P5" s="97">
         <v>45024</v>
       </c>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="99">
+      <c r="U5" s="100">
         <v>45043</v>
       </c>
-      <c r="V5" s="100"/>
-      <c r="W5" s="101">
+      <c r="V5" s="108"/>
+      <c r="W5" s="97">
         <v>45044</v>
       </c>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="99">
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="100">
         <v>45050</v>
       </c>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="101">
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="97">
         <v>45051</v>
       </c>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="99"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1791,13 +1809,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="102" t="s">
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="118" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1832,11 +1850,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="103"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="119"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1871,11 +1889,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="103"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="119"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1910,11 +1928,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="103"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="119"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1949,11 +1967,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="103"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="119"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -1988,11 +2006,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="103"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="119"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2027,11 +2045,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="103"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="119"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2064,11 +2082,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="103"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="119"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2103,11 +2121,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="103"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="119"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2142,11 +2160,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="103"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2179,11 +2197,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="103"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="119"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2216,11 +2234,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="103"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="119"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2253,11 +2271,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="103"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="119"/>
       <c r="U18" s="86"/>
       <c r="V18" s="75"/>
       <c r="W18" s="21"/>
@@ -2290,11 +2308,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="103"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="119"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2327,11 +2345,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="103"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="119"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2364,11 +2382,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="103"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2401,11 +2419,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="103"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="119"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2438,11 +2456,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="103"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="119"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2475,11 +2493,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="79"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="103"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="119"/>
       <c r="U24" s="79"/>
       <c r="V24" s="78"/>
       <c r="W24" s="79"/>
@@ -2511,12 +2529,14 @@
       <c r="L25" s="22"/>
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="103"/>
+      <c r="O25" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="21"/>
       <c r="V25" s="78"/>
       <c r="W25" s="79"/>
@@ -2545,19 +2565,21 @@
       <c r="I26" s="22"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="79"/>
+      <c r="N26" s="122" t="s">
+        <v>12</v>
+      </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="103"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="119"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2586,17 +2608,17 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="121" t="s">
         <v>12</v>
       </c>
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="103"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="119"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2629,11 +2651,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="103"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="119"/>
       <c r="U28" s="21"/>
       <c r="V28" s="78"/>
       <c r="W28" s="79"/>
@@ -2662,17 +2684,21 @@
       <c r="I29" s="22"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23" t="s">
+      <c r="L29" s="75"/>
+      <c r="M29" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="79"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="103"/>
+      <c r="N29" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="119"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
@@ -2701,17 +2727,17 @@
       <c r="I30" s="22"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="22" t="s">
+      <c r="L30" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="74"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="103"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="119"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2744,11 +2770,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="103"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="119"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2781,11 +2807,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="103"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="119"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2818,11 +2844,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="103"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="119"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2855,11 +2881,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="103"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="119"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2892,11 +2918,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="103"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="119"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -2929,11 +2955,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="103"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="119"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2966,11 +2992,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="103"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="119"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3003,11 +3029,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="103"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="119"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3040,11 +3066,11 @@
       <c r="M39" s="24"/>
       <c r="N39" s="84"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="103"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3077,11 +3103,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="103"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="119"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3114,11 +3140,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="84"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="103"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="119"/>
       <c r="U41" s="21"/>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
@@ -3151,11 +3177,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="103"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="119"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3188,11 +3214,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="103"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="119"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3229,11 +3255,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="103"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="119"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3266,11 +3292,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="103"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="119"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3303,11 +3329,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="104"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="120"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3329,6 +3355,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3345,12 +3377,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494305FF-214E-4CDF-9A20-4115C989EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B0C09-0F72-46A6-8554-16736CC1EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1055,6 +1055,27 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,23 +1175,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1532,40 +1538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1578,26 +1584,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="107" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="107"/>
+      <c r="O2" s="114"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1624,20 +1630,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1663,47 +1669,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="92" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="101" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="103"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="110"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="89" t="s">
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="91"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="98"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1716,57 +1722,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="102">
         <v>45008</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97">
+      <c r="C5" s="103"/>
+      <c r="D5" s="104">
         <v>45009</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="107">
         <v>45015</v>
       </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105">
         <v>45016</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="100">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="107">
         <v>45023</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="97">
+      <c r="O5" s="115"/>
+      <c r="P5" s="104">
         <v>45024</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="99"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="100">
+      <c r="U5" s="107">
         <v>45043</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="97">
+      <c r="V5" s="115"/>
+      <c r="W5" s="104">
         <v>45044</v>
       </c>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="100">
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="107">
         <v>45050</v>
       </c>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="97">
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="104">
         <v>45051</v>
       </c>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="99"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="106"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1809,13 +1815,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="118" t="s">
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="125" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1850,11 +1856,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="126"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1889,11 +1895,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="126"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1928,11 +1934,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="126"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1967,11 +1973,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="126"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2006,11 +2012,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="126"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2045,11 +2051,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="126"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2082,11 +2088,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="126"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2121,11 +2127,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="126"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2160,11 +2166,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="126"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2197,11 +2203,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="126"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2234,11 +2240,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="126"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2271,11 +2277,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="126"/>
       <c r="U18" s="86"/>
       <c r="V18" s="75"/>
       <c r="W18" s="21"/>
@@ -2308,11 +2314,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="126"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2345,11 +2351,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="126"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2382,11 +2388,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="126"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2419,11 +2425,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="126"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2456,11 +2462,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="126"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2493,13 +2499,17 @@
       <c r="M24" s="25"/>
       <c r="N24" s="79"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="78"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="128" t="s">
+        <v>12</v>
+      </c>
       <c r="W24" s="79"/>
       <c r="X24" s="78"/>
       <c r="Y24" s="78"/>
@@ -2529,14 +2539,14 @@
       <c r="L25" s="22"/>
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="121" t="s">
+      <c r="O25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="126"/>
       <c r="U25" s="21"/>
       <c r="V25" s="78"/>
       <c r="W25" s="79"/>
@@ -2565,21 +2575,21 @@
       <c r="I26" s="22"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="121" t="s">
+      <c r="L26" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="123" t="s">
+      <c r="M26" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="122" t="s">
+      <c r="N26" s="89" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="126"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2608,17 +2618,17 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="121" t="s">
+      <c r="L27" s="88" t="s">
         <v>12</v>
       </c>
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="126"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2651,12 +2661,14 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="21"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="V28" s="78"/>
       <c r="W28" s="79"/>
       <c r="X28" s="78"/>
@@ -2685,21 +2697,23 @@
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="75"/>
-      <c r="M29" s="124" t="s">
+      <c r="M29" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="125" t="s">
+      <c r="N29" s="92" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="21"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
@@ -2730,14 +2744,14 @@
       <c r="L30" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="126"/>
+      <c r="M30" s="93"/>
       <c r="N30" s="86"/>
       <c r="O30" s="75"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="126"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2770,11 +2784,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="126"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2807,11 +2821,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="126"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2844,11 +2858,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="126"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2881,11 +2895,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="119"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="126"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2918,13 +2932,15 @@
       <c r="M35" s="24"/>
       <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="126"/>
       <c r="U35" s="21"/>
-      <c r="V35" s="22"/>
+      <c r="V35" s="75" t="s">
+        <v>12</v>
+      </c>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
@@ -2955,11 +2971,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="119"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="126"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -2992,11 +3008,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="126"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3029,11 +3045,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="126"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3064,13 +3080,15 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="84"/>
+      <c r="N39" s="94" t="s">
+        <v>12</v>
+      </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="126"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3103,11 +3121,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="126"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3140,12 +3158,14 @@
       <c r="M41" s="24"/>
       <c r="N41" s="84"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="21"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
       <c r="X41" s="22"/>
@@ -3177,11 +3197,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="126"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3214,11 +3234,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="119"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3255,11 +3275,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="126"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3292,11 +3312,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="126"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3329,11 +3349,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="120"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="127"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B0C09-0F72-46A6-8554-16736CC1EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A7DF4-C6FB-4CCE-B809-540675543E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1076,6 +1076,60 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,18 +1157,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,46 +1178,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1538,40 +1541,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1584,26 +1587,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="114" t="s">
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="114"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1630,20 +1633,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1669,47 +1672,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="99" t="s">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="108" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="110"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="124"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="96" t="s">
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="98"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="116"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1722,11 +1725,11 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="102">
+      <c r="B5" s="120">
         <v>45008</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104">
+      <c r="C5" s="121"/>
+      <c r="D5" s="109">
         <v>45009</v>
       </c>
       <c r="E5" s="105"/>
@@ -1745,8 +1748,8 @@
       <c r="N5" s="107">
         <v>45023</v>
       </c>
-      <c r="O5" s="115"/>
-      <c r="P5" s="104">
+      <c r="O5" s="108"/>
+      <c r="P5" s="109">
         <v>45024</v>
       </c>
       <c r="Q5" s="105"/>
@@ -1756,8 +1759,8 @@
       <c r="U5" s="107">
         <v>45043</v>
       </c>
-      <c r="V5" s="115"/>
-      <c r="W5" s="104">
+      <c r="V5" s="108"/>
+      <c r="W5" s="109">
         <v>45044</v>
       </c>
       <c r="X5" s="105"/>
@@ -1766,8 +1769,8 @@
       <c r="AA5" s="107">
         <v>45050</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="104">
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="109">
         <v>45051</v>
       </c>
       <c r="AD5" s="105"/>
@@ -1815,13 +1818,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="116" t="s">
+      <c r="P6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="125" t="s">
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="110" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1856,11 +1859,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="126"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="111"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1895,11 +1898,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="126"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="111"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1934,11 +1937,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="126"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="111"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1973,11 +1976,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="126"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="111"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2012,11 +2015,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="126"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="111"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2051,11 +2054,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="126"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="111"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2088,11 +2091,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="126"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="111"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2127,11 +2130,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="126"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="111"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2166,11 +2169,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="126"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="111"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2203,11 +2206,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="126"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="111"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2240,11 +2243,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="126"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="111"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2277,11 +2280,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="126"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="111"/>
       <c r="U18" s="86"/>
       <c r="V18" s="75"/>
       <c r="W18" s="21"/>
@@ -2314,11 +2317,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="126"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="111"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2351,11 +2354,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="126"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="111"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2388,11 +2391,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="126"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="111"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2425,11 +2428,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="126"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="111"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2462,11 +2465,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="126"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="111"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2499,15 +2502,15 @@
       <c r="M24" s="25"/>
       <c r="N24" s="79"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="126"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="111"/>
       <c r="U24" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="V24" s="128" t="s">
+      <c r="V24" s="95" t="s">
         <v>12</v>
       </c>
       <c r="W24" s="79"/>
@@ -2542,11 +2545,11 @@
       <c r="O25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="126"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="111"/>
       <c r="U25" s="21"/>
       <c r="V25" s="78"/>
       <c r="W25" s="79"/>
@@ -2585,11 +2588,11 @@
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="126"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="111"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2624,11 +2627,11 @@
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="126"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="111"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2661,15 +2664,17 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="126"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="111"/>
       <c r="U28" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="V28" s="78"/>
+      <c r="V28" s="129" t="s">
+        <v>12</v>
+      </c>
       <c r="W28" s="79"/>
       <c r="X28" s="78"/>
       <c r="Y28" s="78"/>
@@ -2706,14 +2711,12 @@
       <c r="O29" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="86" t="s">
-        <v>12</v>
-      </c>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="86"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
       <c r="X29" s="22"/>
@@ -2747,11 +2750,11 @@
       <c r="M30" s="93"/>
       <c r="N30" s="86"/>
       <c r="O30" s="75"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="126"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="111"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2784,11 +2787,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="126"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="111"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2821,11 +2824,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="126"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="111"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2858,11 +2861,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="126"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="111"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2895,11 +2898,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="126"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="111"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2932,11 +2935,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="126"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="111"/>
       <c r="U35" s="21"/>
       <c r="V35" s="75" t="s">
         <v>12</v>
@@ -2971,11 +2974,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="126"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="111"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -3008,11 +3011,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="121"/>
-      <c r="T37" s="126"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="111"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3045,11 +3048,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="121"/>
-      <c r="T38" s="126"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="111"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3084,11 +3087,11 @@
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="121"/>
-      <c r="T39" s="126"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="111"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3121,11 +3124,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="121"/>
-      <c r="T40" s="126"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="111"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3158,11 +3161,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="84"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="126"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="100"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="111"/>
       <c r="U41" s="86" t="s">
         <v>12</v>
       </c>
@@ -3197,11 +3200,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="126"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="111"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3234,11 +3237,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="126"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="111"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3275,11 +3278,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="126"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="111"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3312,11 +3315,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="126"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="111"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3349,11 +3352,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="123"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="127"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="112"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3375,12 +3378,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3397,6 +3394,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A7DF4-C6FB-4CCE-B809-540675543E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F417994-26CF-45CD-8DE3-E70565682B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -1079,6 +1079,72 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1106,21 +1172,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1129,57 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1541,40 +1541,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1587,26 +1587,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="128" t="s">
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="128"/>
+      <c r="O2" s="116"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1633,20 +1633,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1672,47 +1672,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="117" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="122" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="124"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="112"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="114" t="s">
+      <c r="U4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="114" t="s">
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="116"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="100"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1725,57 +1725,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="120">
+      <c r="B5" s="104">
         <v>45008</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="109">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106">
         <v>45009</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107">
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="109">
         <v>45015</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105">
+      <c r="I5" s="107"/>
+      <c r="J5" s="107">
         <v>45016</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="107">
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="109">
         <v>45023</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="109">
+      <c r="O5" s="117"/>
+      <c r="P5" s="106">
         <v>45024</v>
       </c>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="106"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="107">
+      <c r="U5" s="109">
         <v>45043</v>
       </c>
-      <c r="V5" s="108"/>
-      <c r="W5" s="109">
+      <c r="V5" s="117"/>
+      <c r="W5" s="106">
         <v>45044</v>
       </c>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="107">
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="109">
         <v>45050</v>
       </c>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="109">
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="106">
         <v>45051</v>
       </c>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="106"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="108"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1818,13 +1818,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="110" t="s">
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="127" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1859,11 +1859,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="111"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="128"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1898,11 +1898,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="111"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="128"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1937,11 +1937,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="111"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="128"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1976,11 +1976,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="111"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="128"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2015,11 +2015,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="111"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="128"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2054,11 +2054,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="111"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="128"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2091,11 +2091,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="111"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="128"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2130,11 +2130,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="111"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="128"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2169,11 +2169,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="111"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="128"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2206,11 +2206,11 @@
       <c r="M16" s="71"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="111"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="128"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2243,11 +2243,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="111"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="128"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2280,11 +2280,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="76"/>
       <c r="O18" s="77"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="111"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="128"/>
       <c r="U18" s="86"/>
       <c r="V18" s="75"/>
       <c r="W18" s="21"/>
@@ -2317,11 +2317,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="76"/>
       <c r="O19" s="77"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="111"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="128"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2354,11 +2354,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="76"/>
       <c r="O20" s="77"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="111"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="128"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2391,11 +2391,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="76"/>
       <c r="O21" s="77"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="111"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="128"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2428,11 +2428,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="76"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="111"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="128"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2465,11 +2465,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="111"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="128"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2502,21 +2502,29 @@
       <c r="M24" s="25"/>
       <c r="N24" s="79"/>
       <c r="O24" s="78"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="111"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="128"/>
       <c r="U24" s="89" t="s">
         <v>12</v>
       </c>
       <c r="V24" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="W24" s="79"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="25"/>
+      <c r="W24" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22"/>
       <c r="AC24" s="21"/>
@@ -2545,16 +2553,22 @@
       <c r="O25" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="111"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="128"/>
       <c r="U25" s="21"/>
       <c r="V25" s="78"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
+      <c r="W25" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="78" t="s">
+        <v>12</v>
+      </c>
       <c r="Z25" s="85"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
@@ -2588,11 +2602,11 @@
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="111"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="128"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2627,11 +2641,11 @@
       <c r="M27" s="74"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="111"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="128"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2664,18 +2678,18 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="79"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="92" t="s">
+        <v>12</v>
+      </c>
       <c r="X28" s="78"/>
       <c r="Y28" s="78"/>
       <c r="Z28" s="74"/>
@@ -2711,17 +2725,25 @@
       <c r="O29" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="86"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="24"/>
+      <c r="X29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="21"/>
@@ -2750,11 +2772,11 @@
       <c r="M30" s="93"/>
       <c r="N30" s="86"/>
       <c r="O30" s="75"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="111"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="128"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2787,11 +2809,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="111"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="128"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2824,17 +2846,19 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="111"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="128"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="70"/>
-      <c r="Z32" s="24"/>
+      <c r="Z32" s="91" t="s">
+        <v>12</v>
+      </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
       <c r="AC32" s="21"/>
@@ -2861,11 +2885,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="80"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="111"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="128"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2898,11 +2922,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="111"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="128"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2935,11 +2959,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="80"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="111"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="128"/>
       <c r="U35" s="21"/>
       <c r="V35" s="75" t="s">
         <v>12</v>
@@ -2974,11 +2998,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="111"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="128"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -3011,11 +3035,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="111"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="128"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3048,11 +3072,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="111"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="128"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3087,11 +3111,11 @@
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="111"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="128"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3124,11 +3148,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="111"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="128"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3161,11 +3185,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="84"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="111"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="128"/>
       <c r="U41" s="86" t="s">
         <v>12</v>
       </c>
@@ -3200,11 +3224,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="111"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="128"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3237,11 +3261,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="100"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="111"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="128"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3278,11 +3302,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="111"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="128"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3315,11 +3339,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="111"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="128"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3352,16 +3376,18 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="112"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="129"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
       <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
+      <c r="Y46" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="Z46" s="67"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="27"/>
@@ -3378,6 +3404,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3394,12 +3426,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F417994-26CF-45CD-8DE3-E70565682B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E4080-AA22-487D-915A-7082ADF240B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12495" yWindow="5085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1002,9 +1002,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,9 +1049,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,6 +1076,57 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1109,18 +1154,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,44 +1175,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1541,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1541,40 +1553,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1587,26 +1599,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="116" t="s">
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="116"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1633,20 +1645,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1672,47 +1684,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="101" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="110" t="s">
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="112"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="123"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="98" t="s">
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="100"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1725,57 +1737,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="119">
         <v>45008</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106">
+      <c r="C5" s="120"/>
+      <c r="D5" s="108">
         <v>45009</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109">
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106">
         <v>45015</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107">
+      <c r="I5" s="104"/>
+      <c r="J5" s="104">
         <v>45016</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="109">
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106">
         <v>45023</v>
       </c>
-      <c r="O5" s="117"/>
-      <c r="P5" s="106">
+      <c r="O5" s="107"/>
+      <c r="P5" s="108">
         <v>45024</v>
       </c>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="108"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="109">
+      <c r="U5" s="106">
         <v>45043</v>
       </c>
-      <c r="V5" s="117"/>
-      <c r="W5" s="106">
+      <c r="V5" s="107"/>
+      <c r="W5" s="108">
         <v>45044</v>
       </c>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="109">
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="106">
         <v>45050</v>
       </c>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="106">
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="108">
         <v>45051</v>
       </c>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="108"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="105"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1818,13 +1830,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="127" t="s">
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="109" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1859,11 +1871,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="128"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="110"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1898,11 +1910,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="128"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="110"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1937,11 +1949,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="128"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="110"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1976,11 +1988,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="128"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="110"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2008,18 +2020,18 @@
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="128"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="110"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2047,30 +2059,30 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="128"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="110"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="23"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="22"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="22"/>
       <c r="AE12" s="22"/>
-      <c r="AF12" s="24"/>
+      <c r="AF12" s="23"/>
       <c r="AG12" s="5"/>
     </row>
     <row r="13" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2086,28 +2098,28 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="75"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="64"/>
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="128"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="110"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
-      <c r="Z13" s="24"/>
+      <c r="Z13" s="23"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="22"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
-      <c r="AF13" s="24"/>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2123,30 +2135,30 @@
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="128"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
-      <c r="AF14" s="24"/>
+      <c r="AF14" s="23"/>
       <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2162,30 +2174,30 @@
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="128"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="110"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="23"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="22"/>
       <c r="AE15" s="22"/>
-      <c r="AF15" s="24"/>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2201,28 +2213,28 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="75"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="71"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="128"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="110"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
-      <c r="Z16" s="25"/>
+      <c r="Z16" s="128"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="22"/>
       <c r="AE16" s="22"/>
-      <c r="AF16" s="24"/>
+      <c r="AF16" s="23"/>
       <c r="AG16" s="5"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -2243,11 +2255,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="128"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="110"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2259,7 +2271,7 @@
       <c r="AC17" s="21"/>
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
-      <c r="AF17" s="24"/>
+      <c r="AF17" s="23"/>
       <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -2278,15 +2290,15 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="74"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2296,7 +2308,7 @@
       <c r="AC18" s="21"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="24"/>
+      <c r="AF18" s="23"/>
       <c r="AG18" s="5"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -2315,13 +2327,13 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="128"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="110"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2333,7 +2345,7 @@
       <c r="AC19" s="21"/>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
-      <c r="AF19" s="24"/>
+      <c r="AF19" s="23"/>
       <c r="AG19" s="5"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -2352,13 +2364,13 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="128"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="110"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2370,7 +2382,7 @@
       <c r="AC20" s="21"/>
       <c r="AD20" s="22"/>
       <c r="AE20" s="22"/>
-      <c r="AF20" s="24"/>
+      <c r="AF20" s="23"/>
       <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2389,13 +2401,13 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="128"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="110"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2426,13 +2438,13 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="128"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="110"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2465,11 +2477,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="128"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="110"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2500,31 +2512,29 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="N24" s="78"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="25"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="22"/>
       <c r="AC24" s="21"/>
@@ -2550,26 +2560,24 @@
       <c r="L25" s="22"/>
       <c r="M25" s="25"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="128"/>
+      <c r="O25" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="110"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="85"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="84"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="21"/>
@@ -2592,21 +2600,21 @@
       <c r="I26" s="22"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="89" t="s">
+      <c r="L26" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="87" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="128"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="110"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2635,23 +2643,23 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="74"/>
+      <c r="L27" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="73"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="128"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="110"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
-      <c r="Z27" s="24"/>
+      <c r="Z27" s="23"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="21"/>
@@ -2678,21 +2686,21 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="74"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="130"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="22"/>
       <c r="AC28" s="21"/>
@@ -2715,41 +2723,39 @@
       <c r="I29" s="22"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="86" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="85" t="s">
         <v>12</v>
       </c>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="91" t="s">
-        <v>12</v>
-      </c>
+      <c r="X29" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="89"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="22"/>
       <c r="AE29" s="22"/>
-      <c r="AF29" s="24"/>
+      <c r="AF29" s="23"/>
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2766,29 +2772,29 @@
       <c r="I30" s="22"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="93"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="128"/>
+      <c r="L30" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="91"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="110"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
       <c r="Y30" s="22"/>
-      <c r="Z30" s="24"/>
+      <c r="Z30" s="23"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="22"/>
       <c r="AE30" s="22"/>
-      <c r="AF30" s="24"/>
+      <c r="AF30" s="23"/>
       <c r="AG30" s="5"/>
     </row>
     <row r="31" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2809,23 +2815,23 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="128"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="110"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
-      <c r="Z31" s="24"/>
+      <c r="Z31" s="23"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="22"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="22"/>
       <c r="AE31" s="22"/>
-      <c r="AF31" s="24"/>
+      <c r="AF31" s="23"/>
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2846,25 +2852,23 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="128"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="110"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="91" t="s">
-        <v>12</v>
-      </c>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="89"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="22"/>
       <c r="AE32" s="22"/>
-      <c r="AF32" s="24"/>
+      <c r="AF32" s="23"/>
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2883,25 +2887,25 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="80"/>
+      <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="128"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="110"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
-      <c r="Z33" s="24"/>
+      <c r="Z33" s="23"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="22"/>
       <c r="AE33" s="22"/>
-      <c r="AF33" s="24"/>
+      <c r="AF33" s="23"/>
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2922,23 +2926,23 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="128"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="110"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="87"/>
+      <c r="Z34" s="131"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="22"/>
       <c r="AE34" s="22"/>
-      <c r="AF34" s="24"/>
+      <c r="AF34" s="23"/>
       <c r="AG34" s="5"/>
     </row>
     <row r="35" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2957,27 +2961,29 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="80"/>
+      <c r="N35" s="79"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="128"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="110"/>
       <c r="U35" s="21"/>
-      <c r="V35" s="75" t="s">
+      <c r="V35" s="74" t="s">
         <v>12</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
-      <c r="Z35" s="24"/>
+      <c r="Z35" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="22"/>
       <c r="AE35" s="22"/>
-      <c r="AF35" s="24"/>
+      <c r="AF35" s="23"/>
       <c r="AG35" s="5"/>
     </row>
     <row r="36" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2998,23 +3004,23 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="128"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="110"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="87"/>
+      <c r="Z36" s="131"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="22"/>
       <c r="AE36" s="22"/>
-      <c r="AF36" s="24"/>
+      <c r="AF36" s="23"/>
       <c r="AG36" s="5"/>
     </row>
     <row r="37" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3035,27 +3041,27 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="128"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="110"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
-      <c r="Z37" s="24"/>
+      <c r="Z37" s="23"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="22"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="22"/>
       <c r="AE37" s="22"/>
-      <c r="AF37" s="24"/>
+      <c r="AF37" s="23"/>
       <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="21"/>
@@ -3072,23 +3078,25 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="128"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="110"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="68"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="84"/>
+      <c r="Z38" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA38" s="83"/>
       <c r="AB38" s="22"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="22"/>
       <c r="AE38" s="22"/>
-      <c r="AF38" s="24"/>
+      <c r="AF38" s="23"/>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3107,27 +3115,27 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="94" t="s">
+      <c r="N39" s="92" t="s">
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="128"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="110"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
-      <c r="Z39" s="24"/>
+      <c r="Z39" s="23"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="22"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="22"/>
       <c r="AE39" s="22"/>
-      <c r="AF39" s="24"/>
+      <c r="AF39" s="23"/>
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3148,23 +3156,23 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="123"/>
-      <c r="T40" s="128"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="110"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
       <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
-      <c r="Z40" s="24"/>
+      <c r="Z40" s="23"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="68"/>
-      <c r="AC40" s="84"/>
+      <c r="AC40" s="83"/>
       <c r="AD40" s="68"/>
       <c r="AE40" s="68"/>
-      <c r="AF40" s="24"/>
+      <c r="AF40" s="23"/>
       <c r="AG40" s="5"/>
     </row>
     <row r="41" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3183,27 +3191,27 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="84"/>
+      <c r="N41" s="83"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="86" t="s">
+      <c r="P41" s="98"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
+      <c r="S41" s="100"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="85" t="s">
         <v>12</v>
       </c>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
-      <c r="Z41" s="24"/>
+      <c r="Z41" s="23"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="22"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="22"/>
       <c r="AE41" s="22"/>
-      <c r="AF41" s="24"/>
+      <c r="AF41" s="23"/>
       <c r="AG41" s="5"/>
     </row>
     <row r="42" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3224,27 +3232,27 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="123"/>
-      <c r="T42" s="128"/>
+      <c r="P42" s="98"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="110"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
-      <c r="Z42" s="24"/>
+      <c r="Z42" s="23"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="68"/>
-      <c r="AC42" s="84"/>
+      <c r="AC42" s="83"/>
       <c r="AD42" s="68"/>
       <c r="AE42" s="68"/>
-      <c r="AF42" s="24"/>
+      <c r="AF42" s="23"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="82" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="21"/>
@@ -3261,23 +3269,23 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="128"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="110"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
       <c r="X43" s="22"/>
       <c r="Y43" s="22"/>
-      <c r="Z43" s="24"/>
+      <c r="Z43" s="23"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="22"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="22"/>
       <c r="AE43" s="22"/>
-      <c r="AF43" s="24"/>
+      <c r="AF43" s="23"/>
       <c r="AG43" s="5"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -3302,23 +3310,23 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="128"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="110"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
       <c r="X44" s="44"/>
       <c r="Y44" s="44"/>
-      <c r="Z44" s="46"/>
+      <c r="Z44" s="45"/>
       <c r="AA44" s="41"/>
       <c r="AB44" s="44"/>
       <c r="AC44" s="41"/>
       <c r="AD44" s="44"/>
       <c r="AE44" s="44"/>
-      <c r="AF44" s="46"/>
+      <c r="AF44" s="45"/>
       <c r="AG44" s="5"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
@@ -3339,23 +3347,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="128"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="110"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
       <c r="X45" s="44"/>
       <c r="Y45" s="44"/>
-      <c r="Z45" s="66"/>
+      <c r="Z45" s="132"/>
       <c r="AA45" s="41"/>
       <c r="AB45" s="44"/>
       <c r="AC45" s="41"/>
       <c r="AD45" s="44"/>
       <c r="AE45" s="44"/>
-      <c r="AF45" s="66"/>
+      <c r="AF45" s="132"/>
       <c r="AG45" s="5"/>
     </row>
     <row r="46" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3376,11 +3384,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="129"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="111"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3388,28 +3396,22 @@
       <c r="Y46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Z46" s="67"/>
+      <c r="Z46" s="133"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="27"/>
       <c r="AC46" s="26"/>
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
-      <c r="AF46" s="67"/>
+      <c r="AF46" s="133"/>
       <c r="AG46" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="80" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3426,6 +3428,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E4080-AA22-487D-915A-7082ADF240B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF1CD4-7007-4075-B9B2-45095C0D0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12495" yWindow="5085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14400" yWindow="8220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1076,6 +1076,87 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1103,21 +1184,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1127,70 +1193,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1541,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1553,40 +1556,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1599,26 +1602,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="125" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="127" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="127"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1645,20 +1648,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1684,47 +1687,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="116" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="121" t="s">
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="123"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="116"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="113" t="s">
+      <c r="U4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="113" t="s">
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="115"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="104"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1737,57 +1740,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="119">
+      <c r="B5" s="108">
         <v>45008</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="108">
+      <c r="C5" s="109"/>
+      <c r="D5" s="110">
         <v>45009</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106">
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113">
         <v>45015</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104">
+      <c r="I5" s="111"/>
+      <c r="J5" s="111">
         <v>45016</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106">
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="113">
         <v>45023</v>
       </c>
-      <c r="O5" s="107"/>
-      <c r="P5" s="108">
+      <c r="O5" s="121"/>
+      <c r="P5" s="110">
         <v>45024</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="105"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="106">
+      <c r="U5" s="113">
         <v>45043</v>
       </c>
-      <c r="V5" s="107"/>
-      <c r="W5" s="108">
+      <c r="V5" s="121"/>
+      <c r="W5" s="110">
         <v>45044</v>
       </c>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="106">
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113">
         <v>45050</v>
       </c>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="108">
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="110">
         <v>45051</v>
       </c>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="105"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="112"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1830,13 +1833,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="109" t="s">
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="131" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1871,11 +1874,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="110"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="132"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1910,11 +1913,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="110"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="132"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1949,11 +1952,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="110"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="132"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1988,11 +1991,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="110"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="132"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2027,11 +2030,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="110"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="132"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2066,11 +2069,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="110"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="132"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2103,11 +2106,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="110"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="132"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2142,11 +2145,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="110"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="132"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2181,11 +2184,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="110"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="132"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2218,17 +2221,17 @@
       <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="110"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="132"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
-      <c r="Z16" s="128"/>
+      <c r="Z16" s="95"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="21"/>
@@ -2255,11 +2258,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="110"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="132"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2292,11 +2295,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="75"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="110"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="132"/>
       <c r="U18" s="85"/>
       <c r="V18" s="74"/>
       <c r="W18" s="21"/>
@@ -2329,11 +2332,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="75"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="110"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="132"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2366,11 +2369,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="75"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="110"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="132"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2403,11 +2406,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="75"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="110"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="132"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2440,11 +2443,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="75"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="110"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="132"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2477,11 +2480,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="110"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="132"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2514,11 +2517,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="78"/>
       <c r="O24" s="77"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="110"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="132"/>
       <c r="U24" s="87" t="s">
         <v>12</v>
       </c>
@@ -2535,8 +2538,10 @@
         <v>12</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="22"/>
+      <c r="AA24" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="86"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
@@ -2563,11 +2568,11 @@
       <c r="O25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="110"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="132"/>
       <c r="U25" s="21"/>
       <c r="V25" s="77"/>
       <c r="W25" s="87"/>
@@ -2578,8 +2583,10 @@
         <v>12</v>
       </c>
       <c r="Z25" s="84"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="22"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="AC25" s="21"/>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -2610,11 +2617,11 @@
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="110"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="132"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2649,11 +2656,11 @@
       <c r="M27" s="73"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="110"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="132"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2686,11 +2693,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="110"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="132"/>
       <c r="U28" s="85"/>
       <c r="V28" s="94" t="s">
         <v>12</v>
@@ -2700,9 +2707,13 @@
       </c>
       <c r="X28" s="77"/>
       <c r="Y28" s="77"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="22"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="AC28" s="21"/>
       <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
@@ -2733,11 +2744,11 @@
       <c r="O29" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="110"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="132"/>
       <c r="U29" s="85" t="s">
         <v>12</v>
       </c>
@@ -2778,11 +2789,11 @@
       <c r="M30" s="91"/>
       <c r="N30" s="85"/>
       <c r="O30" s="74"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="110"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="132"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2815,11 +2826,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="110"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="132"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2852,11 +2863,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="110"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="132"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2889,11 +2900,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="110"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="132"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2926,17 +2937,17 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="110"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="132"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="131"/>
+      <c r="Z34" s="98"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="21"/>
@@ -2963,11 +2974,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="79"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="110"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="132"/>
       <c r="U35" s="21"/>
       <c r="V35" s="74" t="s">
         <v>12</v>
@@ -3004,17 +3015,17 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="110"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="126"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="132"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
-      <c r="Z36" s="131"/>
+      <c r="Z36" s="98"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
@@ -3041,11 +3052,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="110"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="126"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="132"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3078,17 +3089,17 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="110"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="132"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="68"/>
-      <c r="Z38" s="129" t="s">
+      <c r="Z38" s="96" t="s">
         <v>12</v>
       </c>
       <c r="AA38" s="83"/>
@@ -3119,11 +3130,11 @@
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="110"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="132"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3156,11 +3167,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="110"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="127"/>
+      <c r="T40" s="132"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3193,11 +3204,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="83"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="110"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="132"/>
       <c r="U41" s="85" t="s">
         <v>12</v>
       </c>
@@ -3232,11 +3243,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="110"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="132"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3269,11 +3280,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="110"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="132"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3310,11 +3321,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="99"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="110"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="132"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3347,23 +3358,23 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="110"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="126"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="132"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
       <c r="X45" s="44"/>
       <c r="Y45" s="44"/>
-      <c r="Z45" s="132"/>
+      <c r="Z45" s="99"/>
       <c r="AA45" s="41"/>
       <c r="AB45" s="44"/>
       <c r="AC45" s="41"/>
       <c r="AD45" s="44"/>
       <c r="AE45" s="44"/>
-      <c r="AF45" s="132"/>
+      <c r="AF45" s="99"/>
       <c r="AG45" s="5"/>
     </row>
     <row r="46" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3384,11 +3395,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="111"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="129"/>
+      <c r="R46" s="129"/>
+      <c r="S46" s="130"/>
+      <c r="T46" s="133"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3396,13 +3407,13 @@
       <c r="Y46" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Z46" s="133"/>
+      <c r="Z46" s="100"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="27"/>
       <c r="AC46" s="26"/>
       <c r="AD46" s="27"/>
       <c r="AE46" s="27"/>
-      <c r="AF46" s="133"/>
+      <c r="AF46" s="100"/>
       <c r="AG46" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -3412,6 +3423,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3428,12 +3445,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/planning_133.xlsx
+++ b/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF1CD4-7007-4075-B9B2-45095C0D0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BE3B3-6A1D-4D57-A65E-447A5DCB287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="8220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -95,30 +95,6 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Diagramme de séquence REST Admin</t>
-  </si>
-  <si>
-    <t>Use Case REST Admin</t>
-  </si>
-  <si>
-    <t>Use Case Client</t>
-  </si>
-  <si>
-    <t>Use Case REST Client</t>
-  </si>
-  <si>
-    <t>Diagramme de séquence REST Client</t>
-  </si>
-  <si>
-    <t>Use Case Admin</t>
-  </si>
-  <si>
-    <t>Diagramme de classe Admin</t>
-  </si>
-  <si>
-    <t>Diagramme de classe Client</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
@@ -134,12 +110,6 @@
     <t>API Gateway</t>
   </si>
   <si>
-    <t>serviceRest Client</t>
-  </si>
-  <si>
-    <t>base de données Client</t>
-  </si>
-  <si>
     <t>TOUS</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>API Gateway Tomcat</t>
   </si>
   <si>
-    <t>Scénario global Admin</t>
-  </si>
-  <si>
     <t>Gestion de projet</t>
   </si>
   <si>
@@ -164,49 +131,82 @@
     <t>EMF Audits</t>
   </si>
   <si>
-    <t>Navigation Client</t>
-  </si>
-  <si>
-    <t>Navigation Admin</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Client Tomcat/WAMP</t>
-  </si>
-  <si>
-    <t>Admin Tomcat/WAMP</t>
-  </si>
-  <si>
-    <t>Service REST Tizoo Admin</t>
-  </si>
-  <si>
-    <t>Service REST Tizoo Client</t>
-  </si>
-  <si>
-    <t>serviceRest Admin</t>
-  </si>
-  <si>
-    <t>base de données Admin</t>
-  </si>
-  <si>
     <t xml:space="preserve">6 test </t>
   </si>
   <si>
-    <t>Service REST Admin</t>
-  </si>
-  <si>
     <t>Service REST Classement</t>
   </si>
   <si>
     <t>API gateway</t>
   </si>
   <si>
-    <t>Scénario global Client</t>
+    <t>Use Case Classement</t>
+  </si>
+  <si>
+    <t>Use Case REST Classement</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence REST Classement</t>
+  </si>
+  <si>
+    <t>Navigation Classement</t>
+  </si>
+  <si>
+    <t>Diagramme de classe Classement</t>
+  </si>
+  <si>
+    <t>serviceRest Classement</t>
+  </si>
+  <si>
+    <t>Classement</t>
+  </si>
+  <si>
+    <t>base de données Classement</t>
+  </si>
+  <si>
+    <t>Service REST Tizoo Classement</t>
+  </si>
+  <si>
+    <t>Classement Tomcat/WAMP</t>
+  </si>
+  <si>
+    <t>Scénario global Classement</t>
+  </si>
+  <si>
+    <t>Service REST User</t>
+  </si>
+  <si>
+    <t>Scénario global User</t>
+  </si>
+  <si>
+    <t>Service REST Tizoo User</t>
+  </si>
+  <si>
+    <t>User Tomcat/WAMP</t>
+  </si>
+  <si>
+    <t>serviceRest User</t>
+  </si>
+  <si>
+    <t>base de données User</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Diagramme de classe User</t>
+  </si>
+  <si>
+    <t>Navigation User</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence REST User</t>
+  </si>
+  <si>
+    <t>Use Case REST User</t>
+  </si>
+  <si>
+    <t>Use Case User</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1094,60 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,18 +1175,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,48 +1194,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1544,52 +1544,52 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="32" width="5.7109375" customWidth="1"/>
     <col min="33" max="39" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
+      <c r="A1" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1602,26 +1602,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="120"/>
+      <c r="B2" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="134"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1648,20 +1648,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="B3" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1687,47 +1687,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="105" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="114" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="116"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="130"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="102" t="s">
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="104"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="122"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1740,11 +1740,11 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="126">
         <v>45008</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110">
+      <c r="C5" s="127"/>
+      <c r="D5" s="115">
         <v>45009</v>
       </c>
       <c r="E5" s="111"/>
@@ -1763,8 +1763,8 @@
       <c r="N5" s="113">
         <v>45023</v>
       </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="110">
+      <c r="O5" s="114"/>
+      <c r="P5" s="115">
         <v>45024</v>
       </c>
       <c r="Q5" s="111"/>
@@ -1774,8 +1774,8 @@
       <c r="U5" s="113">
         <v>45043</v>
       </c>
-      <c r="V5" s="121"/>
-      <c r="W5" s="110">
+      <c r="V5" s="114"/>
+      <c r="W5" s="115">
         <v>45044</v>
       </c>
       <c r="X5" s="111"/>
@@ -1784,8 +1784,8 @@
       <c r="AA5" s="113">
         <v>45050</v>
       </c>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="110">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="115">
         <v>45051</v>
       </c>
       <c r="AD5" s="111"/>
@@ -1833,13 +1833,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="122" t="s">
+      <c r="P6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="131" t="s">
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="116" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1874,11 +1874,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="132"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1913,11 +1913,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="132"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="117"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1952,11 +1952,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="132"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="117"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1991,11 +1991,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="132"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="117"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="11" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="30"/>
@@ -2030,11 +2030,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="132"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="117"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="12" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="30"/>
@@ -2069,11 +2069,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="132"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="117"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="13" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="30"/>
@@ -2106,11 +2106,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="132"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="117"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="30"/>
@@ -2145,11 +2145,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="132"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="117"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="15" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="30"/>
@@ -2184,11 +2184,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="132"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="117"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="16" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="30"/>
@@ -2221,11 +2221,11 @@
       <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="132"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="117"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2258,11 +2258,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="132"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="117"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2295,11 +2295,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="75"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="132"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="117"/>
       <c r="U18" s="85"/>
       <c r="V18" s="74"/>
       <c r="W18" s="21"/>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="30"/>
@@ -2332,11 +2332,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="75"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="132"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="117"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
@@ -2369,11 +2369,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="75"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="132"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="117"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="21" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="30"/>
@@ -2406,11 +2406,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="75"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="132"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="117"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="22" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="30"/>
@@ -2443,11 +2443,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="75"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="132"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="117"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2480,11 +2480,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="132"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="117"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="24" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="30"/>
@@ -2517,11 +2517,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="78"/>
       <c r="O24" s="77"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="132"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="117"/>
       <c r="U24" s="87" t="s">
         <v>12</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="134" t="s">
+      <c r="AA24" s="101" t="s">
         <v>12</v>
       </c>
       <c r="AB24" s="86"/>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="25" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="30"/>
@@ -2568,11 +2568,11 @@
       <c r="O25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="132"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="117"/>
       <c r="U25" s="21"/>
       <c r="V25" s="77"/>
       <c r="W25" s="87"/>
@@ -2583,7 +2583,7 @@
         <v>12</v>
       </c>
       <c r="Z25" s="84"/>
-      <c r="AA25" s="134"/>
+      <c r="AA25" s="101"/>
       <c r="AB25" s="86" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="26" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="30"/>
@@ -2617,11 +2617,11 @@
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="132"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="117"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="27" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="30"/>
@@ -2656,11 +2656,11 @@
       <c r="M27" s="73"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="132"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="117"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="28" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="30"/>
@@ -2693,11 +2693,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="132"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="117"/>
       <c r="U28" s="85"/>
       <c r="V28" s="94" t="s">
         <v>12</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="29" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="30"/>
@@ -2744,11 +2744,11 @@
       <c r="O29" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="132"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="117"/>
       <c r="U29" s="85" t="s">
         <v>12</v>
       </c>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="30" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="30"/>
@@ -2789,11 +2789,11 @@
       <c r="M30" s="91"/>
       <c r="N30" s="85"/>
       <c r="O30" s="74"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="132"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="117"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="31" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="30"/>
@@ -2826,11 +2826,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="132"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="117"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="32" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="30"/>
@@ -2863,11 +2863,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="132"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="117"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="33" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="30"/>
@@ -2900,11 +2900,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="132"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="117"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="34" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="30"/>
@@ -2937,11 +2937,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="125"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="132"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="117"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="35" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="30"/>
@@ -2974,11 +2974,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="79"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="132"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="117"/>
       <c r="U35" s="21"/>
       <c r="V35" s="74" t="s">
         <v>12</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="36" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="30"/>
@@ -3015,11 +3015,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="132"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="117"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -3052,11 +3052,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="132"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="117"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="30"/>
@@ -3089,11 +3089,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="132"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="117"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="30"/>
@@ -3130,11 +3130,11 @@
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="132"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="117"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="40" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="30"/>
@@ -3167,11 +3167,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="132"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="117"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="41" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="30"/>
@@ -3204,11 +3204,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="83"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="132"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="117"/>
       <c r="U41" s="85" t="s">
         <v>12</v>
       </c>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="42" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="30"/>
@@ -3243,11 +3243,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="132"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="117"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="82" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="30"/>
@@ -3280,11 +3280,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="132"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="117"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -3321,11 +3321,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="132"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="117"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="51" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -3358,11 +3358,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="132"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="117"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="46" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="31"/>
@@ -3395,11 +3395,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="133"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="118"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3418,17 +3418,11 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="80" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3445,6 +3439,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
